--- a/Buisness/Petty Cash/Parks Electrical.xlsx
+++ b/Buisness/Petty Cash/Parks Electrical.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmacgilliv\Downloads\schoolwork\Buisness\Petty Cash\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{327CF6D1-C59E-4B0E-8645-C952D2EE7B04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C841836D-7AA9-4158-9047-1688AE1D0FE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A109036A-455D-490C-A2FE-104232295924}"/>
   </bookViews>
@@ -193,9 +193,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -204,6 +201,9 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -260,7 +260,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-AU" baseline="0"/>
-              <a:t> of Payments as of 17/7</a:t>
+              <a:t> of Payments as of 17/7/2021</a:t>
             </a:r>
             <a:endParaRPr lang="en-AU"/>
           </a:p>
@@ -1148,7 +1148,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9277089" cy="6054247"/>
+    <xdr:ext cx="9277089" cy="6041199"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -1477,7 +1477,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" activeCellId="1" sqref="G24:J24 G3:J3"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1489,98 +1489,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="2" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>44383</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>105</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>395</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>44385</v>
       </c>
       <c r="B6" t="s">
@@ -1589,21 +1589,21 @@
       <c r="C6" s="1">
         <v>135</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5">
+      <c r="D6" s="4"/>
+      <c r="E6" s="4">
         <v>55</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <f>E6/11</f>
         <v>5</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="4">
         <f>E6-F6</f>
         <v>50</v>
       </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
@@ -1612,24 +1612,24 @@
       <c r="C7" s="1">
         <v>136</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5">
+      <c r="D7" s="4"/>
+      <c r="E7" s="4">
         <v>5.2</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="4">
         <f t="shared" ref="F7:F11" si="0">E7/11</f>
         <v>0.47272727272727272</v>
       </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5">
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4">
         <f>E7-F7</f>
         <v>4.7272727272727275</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>44387</v>
       </c>
       <c r="B8" t="s">
@@ -1638,21 +1638,21 @@
       <c r="C8" s="1">
         <v>137</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5">
+      <c r="D8" s="4"/>
+      <c r="E8" s="4">
         <v>22</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="4">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5">
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4">
         <f>E8-F8</f>
         <v>20</v>
       </c>
-      <c r="J8" s="5"/>
+      <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
@@ -1661,21 +1661,21 @@
       <c r="C9" s="1">
         <v>138</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5">
+      <c r="D9" s="4"/>
+      <c r="E9" s="4">
         <v>33</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G9" s="5">
-        <f t="shared" ref="G7:G11" si="1">E9-F9</f>
+      <c r="G9" s="4">
+        <f t="shared" ref="G9" si="1">E9-F9</f>
         <v>30</v>
       </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
@@ -1684,21 +1684,21 @@
       <c r="C10" s="1">
         <v>139</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5">
+      <c r="D10" s="4"/>
+      <c r="E10" s="4">
         <v>88</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5">
+      <c r="G10" s="4"/>
+      <c r="H10" s="4">
         <f>E10-F10</f>
         <v>80</v>
       </c>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
@@ -1707,44 +1707,44 @@
       <c r="C11" s="1">
         <v>140</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5">
+      <c r="D11" s="4"/>
+      <c r="E11" s="4">
         <v>11</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5">
+      <c r="G11" s="4"/>
+      <c r="H11" s="4">
         <f>E11-F11</f>
         <v>10</v>
       </c>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E12" s="7">
+      <c r="E12" s="6">
         <f>SUM(E6:E11)</f>
         <v>214.2</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="5">
         <f>SUM(F6:F11)</f>
         <v>19.472727272727273</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="5">
         <f t="shared" ref="G12:J12" si="2">SUM(G6:G11)</f>
         <v>80</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="5">
         <f t="shared" si="2"/>
         <v>90</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="5">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="5">
         <f t="shared" si="2"/>
         <v>4.7272727272727275</v>
       </c>
@@ -1753,17 +1753,17 @@
       <c r="B13" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="7">
         <f>D4+D5-E12</f>
         <v>285.8</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="6">
+      <c r="D14" s="5">
         <f>D4+D5</f>
         <v>500</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="5">
         <f>E12+E13</f>
         <v>500</v>
       </c>
@@ -1772,53 +1772,53 @@
       <c r="B15" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="4">
         <f>E13</f>
         <v>285.8</v>
       </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="4">
         <f>D14-D15</f>
         <v>214.2</v>
       </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
+      <c r="A17" s="3">
         <v>44391</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="1">
         <v>141</v>
       </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5">
+      <c r="D17" s="4"/>
+      <c r="E17" s="4">
         <v>7.4</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="4">
         <v>0</v>
       </c>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5">
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4">
         <f>E17-F17</f>
         <v>7.4</v>
       </c>
@@ -1827,172 +1827,172 @@
       <c r="B18" t="s">
         <v>19</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="1">
         <v>142</v>
       </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5">
+      <c r="D18" s="4"/>
+      <c r="E18" s="4">
         <v>4.5</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="4">
         <f>E18/11</f>
         <v>0.40909090909090912</v>
       </c>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5">
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4">
         <f>E18-F18</f>
         <v>4.0909090909090908</v>
       </c>
-      <c r="J18" s="5"/>
+      <c r="J18" s="4"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>8</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="1">
         <v>143</v>
       </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5">
+      <c r="D19" s="4"/>
+      <c r="E19" s="4">
         <v>36.299999999999997</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="4">
         <f t="shared" ref="F19:F23" si="3">E19/11</f>
         <v>3.3</v>
       </c>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5">
+      <c r="G19" s="4"/>
+      <c r="H19" s="4">
         <f>E19-F19</f>
         <v>33</v>
       </c>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>20</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="1">
         <v>144</v>
       </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5">
+      <c r="D20" s="4"/>
+      <c r="E20" s="4">
         <v>47.5</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="4">
         <f t="shared" si="3"/>
         <v>4.3181818181818183</v>
       </c>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5">
-        <f t="shared" ref="J18:J23" si="4">E20-F20</f>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4">
+        <f t="shared" ref="J20:J23" si="4">E20-F20</f>
         <v>43.18181818181818</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
+      <c r="A21" s="3">
         <v>44392</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="1">
         <v>145</v>
       </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5">
+      <c r="D21" s="4"/>
+      <c r="E21" s="4">
         <v>16.5</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="4">
         <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5">
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4">
         <f>E21-F21</f>
         <v>15</v>
       </c>
-      <c r="J21" s="5"/>
+      <c r="J21" s="4"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
+      <c r="A22" s="3">
         <v>44393</v>
       </c>
       <c r="B22" t="s">
         <v>7</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="1">
         <v>146</v>
       </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5">
+      <c r="D22" s="4"/>
+      <c r="E22" s="4">
         <v>62</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="4">
         <f t="shared" si="3"/>
         <v>5.6363636363636367</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22" s="4">
         <f>E22-F22</f>
         <v>56.36363636363636</v>
       </c>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
+      <c r="A23" s="3">
         <v>44394</v>
       </c>
       <c r="B23" t="s">
         <v>22</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="1">
         <v>147</v>
       </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5">
+      <c r="D23" s="4"/>
+      <c r="E23" s="4">
         <v>99</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="4">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5">
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4">
         <f t="shared" si="4"/>
         <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D24" s="5"/>
-      <c r="E24" s="7">
+      <c r="D24" s="4"/>
+      <c r="E24" s="6">
         <f>SUM(E17:E23)</f>
         <v>273.2</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="5">
         <f>SUM(F17:F23)</f>
         <v>24.163636363636364</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24" s="5">
         <f t="shared" ref="G24:J24" si="5">SUM(G17:G23)</f>
         <v>56.36363636363636</v>
       </c>
-      <c r="H24" s="6">
+      <c r="H24" s="5">
         <f t="shared" si="5"/>
         <v>33</v>
       </c>
-      <c r="I24" s="6">
+      <c r="I24" s="5">
         <f t="shared" si="5"/>
         <v>19.09090909090909</v>
       </c>
-      <c r="J24" s="6">
+      <c r="J24" s="5">
         <f t="shared" si="5"/>
         <v>140.58181818181816</v>
       </c>
@@ -2001,17 +2001,17 @@
       <c r="B25" t="s">
         <v>17</v>
       </c>
-      <c r="E25" s="10">
+      <c r="E25" s="9">
         <f>D15+D16-E24</f>
         <v>226.8</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D26" s="6">
+      <c r="D26" s="5">
         <f>D15+D16</f>
         <v>500</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E26" s="8">
         <f>E25+E24</f>
         <v>500</v>
       </c>
@@ -2020,7 +2020,7 @@
       <c r="B27" t="s">
         <v>12</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="4">
         <f>E25</f>
         <v>226.8</v>
       </c>
@@ -2029,7 +2029,7 @@
       <c r="B28" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="4">
         <f>D26-D27</f>
         <v>273.2</v>
       </c>
